--- a/PCB_design_files/P2.0/manufacturingFiles/assembly/P2.0-BOM.xlsx
+++ b/PCB_design_files/P2.0/manufacturingFiles/assembly/P2.0-BOM.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cw\Desktop\capstone\repo\Wearable-EEG-Sensor\PCB_design_files\P2.0\manufacturingFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\classes\capstone\Wearable-EEG-Sensor\PCB_design_files\P2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D1340B57-FC8D-40EF-9ECB-FBEF9CE86554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7EFF4105-F7A9-4AB8-8B5C-3CD5220552A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="P2.0-BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="P2.0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="268" uniqueCount="176">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="268" uniqueCount="178">
   <si>
     <t>Value</t>
   </si>
@@ -63,6 +63,9 @@
     <t>BHSD-1225-SM</t>
   </si>
   <si>
+    <t>Connector_PinSocket_2.54mm:PinSocket_1x02_P2.54mm_Vertical</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
@@ -87,7 +90,7 @@
     <t>CC0402MPX5R5BB106</t>
   </si>
   <si>
-    <t>C3-C5, C12-C14, C22, C23, C26</t>
+    <t>C3-C5, C12-C14, C22-C26</t>
   </si>
   <si>
     <t>0.1uF</t>
@@ -141,7 +144,7 @@
     <t>C2012X5R0J336M125AC</t>
   </si>
   <si>
-    <t>C10, C11, C24, C25</t>
+    <t>C10, C11</t>
   </si>
   <si>
     <t>1uF</t>
@@ -234,12 +237,15 @@
     <t>J1</t>
   </si>
   <si>
+    <t>EEG_IN</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x02_P2.54mm_Vertical</t>
+  </si>
+  <si>
     <t>J2</t>
   </si>
   <si>
-    <t>Conn_02x03_Counter_Clockwise</t>
-  </si>
-  <si>
     <t>20021121_00006C4LF:AMPHENOL_20021121-00006C4LF</t>
   </si>
   <si>
@@ -354,13 +360,13 @@
     <t>R6</t>
   </si>
   <si>
-    <t>20k</t>
-  </si>
-  <si>
-    <t>RES 20k OHM 1/16W 1% 0402 SMD</t>
-  </si>
-  <si>
-    <t>RMCF0402FT20K0</t>
+    <t>40k</t>
+  </si>
+  <si>
+    <t>RES 40.2k OHM 1/16W 1% 0402 SMD</t>
+  </si>
+  <si>
+    <t>RMCF0402FT40K2</t>
   </si>
   <si>
     <t>R10</t>
@@ -408,7 +414,7 @@
     <t>RMCF0402FT49K9</t>
   </si>
   <si>
-    <t>R14, R20</t>
+    <t>R14</t>
   </si>
   <si>
     <t>10k</t>
@@ -558,7 +564,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1045,15 +1051,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1430,64 +1442,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>168</v>
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="I1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" t="s">
@@ -1506,27 +1519,27 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1535,1022 +1548,1022 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="C5" s="1">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="4">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="1">
+        <v>604</v>
+      </c>
+      <c r="H26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" t="s">
+        <v>143</v>
+      </c>
+      <c r="I33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34" t="s">
+        <v>147</v>
+      </c>
+      <c r="H34" t="s">
+        <v>148</v>
+      </c>
+      <c r="I34" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" t="s">
+        <v>151</v>
+      </c>
+      <c r="F35" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" t="s">
+        <v>151</v>
+      </c>
+      <c r="H35" t="s">
+        <v>152</v>
+      </c>
+      <c r="I35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" t="s">
+        <v>155</v>
+      </c>
+      <c r="H36" t="s">
+        <v>156</v>
+      </c>
+      <c r="I36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" t="s">
+        <v>162</v>
+      </c>
+      <c r="G37" t="s">
+        <v>160</v>
+      </c>
+      <c r="H37" t="s">
+        <v>161</v>
+      </c>
+      <c r="I37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" t="s">
-        <v>83</v>
-      </c>
-      <c r="I20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="1">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" t="s">
-        <v>92</v>
-      </c>
-      <c r="I24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" t="s">
-        <v>92</v>
-      </c>
-      <c r="I25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="2">
-        <v>604</v>
-      </c>
-      <c r="H26" t="s">
-        <v>92</v>
-      </c>
-      <c r="I26" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" t="s">
-        <v>118</v>
-      </c>
-      <c r="F27" t="s">
-        <v>117</v>
-      </c>
-      <c r="G27" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" t="s">
-        <v>92</v>
-      </c>
-      <c r="I27" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" t="s">
-        <v>122</v>
-      </c>
-      <c r="F28" t="s">
-        <v>121</v>
-      </c>
-      <c r="G28" t="s">
-        <v>120</v>
-      </c>
-      <c r="H28" t="s">
-        <v>92</v>
-      </c>
-      <c r="I28" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29" t="s">
-        <v>125</v>
-      </c>
-      <c r="G29" t="s">
-        <v>124</v>
-      </c>
-      <c r="H29" t="s">
-        <v>92</v>
-      </c>
-      <c r="I29" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" t="s">
-        <v>130</v>
-      </c>
-      <c r="F30" t="s">
-        <v>129</v>
-      </c>
-      <c r="G30" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30" t="s">
-        <v>92</v>
-      </c>
-      <c r="I30" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" t="s">
-        <v>133</v>
-      </c>
-      <c r="G31" t="s">
-        <v>132</v>
-      </c>
-      <c r="H31" t="s">
-        <v>92</v>
-      </c>
-      <c r="I31" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" t="s">
-        <v>136</v>
-      </c>
-      <c r="H32" t="s">
-        <v>92</v>
-      </c>
-      <c r="I32" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>139</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>143</v>
-      </c>
-      <c r="E33" t="s">
-        <v>140</v>
-      </c>
-      <c r="F33" t="s">
-        <v>142</v>
-      </c>
-      <c r="G33" t="s">
-        <v>140</v>
-      </c>
-      <c r="H33" t="s">
-        <v>141</v>
-      </c>
-      <c r="I33" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>144</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>143</v>
-      </c>
-      <c r="E34" t="s">
-        <v>145</v>
-      </c>
-      <c r="F34" t="s">
-        <v>147</v>
-      </c>
-      <c r="G34" t="s">
-        <v>145</v>
-      </c>
-      <c r="H34" t="s">
-        <v>146</v>
-      </c>
-      <c r="I34" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>148</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>143</v>
-      </c>
-      <c r="E35" t="s">
-        <v>149</v>
-      </c>
-      <c r="F35" t="s">
-        <v>151</v>
-      </c>
-      <c r="G35" t="s">
-        <v>149</v>
-      </c>
-      <c r="H35" t="s">
-        <v>150</v>
-      </c>
-      <c r="I35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>143</v>
-      </c>
-      <c r="E36" t="s">
-        <v>156</v>
-      </c>
-      <c r="F36" t="s">
-        <v>155</v>
-      </c>
-      <c r="G36" t="s">
-        <v>153</v>
-      </c>
-      <c r="H36" t="s">
-        <v>154</v>
-      </c>
-      <c r="I36" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>161</v>
-      </c>
-      <c r="E37" t="s">
-        <v>158</v>
-      </c>
-      <c r="F37" t="s">
-        <v>160</v>
-      </c>
-      <c r="G37" t="s">
-        <v>158</v>
-      </c>
-      <c r="H37" t="s">
-        <v>159</v>
-      </c>
-      <c r="I37" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
       <c r="B38" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" s="1">
+        <v>164</v>
+      </c>
+      <c r="C38" s="4">
         <v>1</v>
       </c>
       <c r="D38" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38" t="s">
+        <v>165</v>
+      </c>
+      <c r="H38" t="s">
         <v>166</v>
       </c>
-      <c r="E38" t="s">
-        <v>167</v>
-      </c>
-      <c r="F38" t="s">
-        <v>165</v>
-      </c>
-      <c r="G38" t="s">
-        <v>163</v>
-      </c>
-      <c r="H38" t="s">
-        <v>164</v>
-      </c>
       <c r="I38" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
